--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="605">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1827,6 +1827,9 @@
   <si>
     <t>['19', '45+2', '67']</t>
   </si>
+  <si>
+    <t>['36', '52', '67']</t>
+  </si>
 </sst>
 </file>
 
@@ -2187,7 +2190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP539"/>
+  <dimension ref="A1:BP540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6026,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ19">
         <v>1.04</v>
@@ -6853,7 +6856,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ23">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -10561,7 +10564,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ41">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR41">
         <v>1.04</v>
@@ -10764,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ42">
         <v>1.22</v>
@@ -15093,7 +15096,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ63">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR63">
         <v>2.1</v>
@@ -15914,7 +15917,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ67">
         <v>0.7</v>
@@ -17768,7 +17771,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ76">
         <v>0.61</v>
@@ -19625,7 +19628,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ85">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR85">
         <v>1.81</v>
@@ -22918,7 +22921,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ101">
         <v>1.13</v>
@@ -24569,7 +24572,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ109">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -29716,7 +29719,7 @@
         <v>1.6</v>
       </c>
       <c r="AP134">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ134">
         <v>1.09</v>
@@ -30749,7 +30752,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ139">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR139">
         <v>1.41</v>
@@ -33836,7 +33839,7 @@
         <v>2</v>
       </c>
       <c r="AP154">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ154">
         <v>1.64</v>
@@ -35487,7 +35490,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ162">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR162">
         <v>1.31</v>
@@ -37750,7 +37753,7 @@
         <v>0.71</v>
       </c>
       <c r="AP173">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ173">
         <v>1.26</v>
@@ -40637,7 +40640,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ187">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR187">
         <v>1.7</v>
@@ -42282,7 +42285,7 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ195">
         <v>1.32</v>
@@ -46199,7 +46202,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ214">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR214">
         <v>0.98</v>
@@ -47020,7 +47023,7 @@
         <v>0.8</v>
       </c>
       <c r="AP218">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ218">
         <v>1.18</v>
@@ -47229,7 +47232,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ219">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR219">
         <v>1.37</v>
@@ -55878,7 +55881,7 @@
         <v>1</v>
       </c>
       <c r="AP261">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ261">
         <v>1.32</v>
@@ -56705,7 +56708,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ265">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR265">
         <v>1.26</v>
@@ -59380,7 +59383,7 @@
         <v>1.55</v>
       </c>
       <c r="AP278">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ278">
         <v>1.61</v>
@@ -61649,7 +61652,7 @@
         <v>2.32</v>
       </c>
       <c r="AQ289">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR289">
         <v>1.86</v>
@@ -62267,7 +62270,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ292">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR292">
         <v>1.3</v>
@@ -63500,7 +63503,7 @@
         <v>0.33</v>
       </c>
       <c r="AP298">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ298">
         <v>0.86</v>
@@ -67005,7 +67008,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ315">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR315">
         <v>1.43</v>
@@ -67826,7 +67829,7 @@
         <v>1.23</v>
       </c>
       <c r="AP319">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ319">
         <v>1.14</v>
@@ -73803,7 +73806,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ348">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR348">
         <v>1.33</v>
@@ -74212,7 +74215,7 @@
         <v>1.86</v>
       </c>
       <c r="AP350">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ350">
         <v>1.77</v>
@@ -76893,7 +76896,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ363">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR363">
         <v>1.69</v>
@@ -79774,7 +79777,7 @@
         <v>1.43</v>
       </c>
       <c r="AP377">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ377">
         <v>1.52</v>
@@ -81010,7 +81013,7 @@
         <v>1.07</v>
       </c>
       <c r="AP383">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ383">
         <v>1.14</v>
@@ -84103,7 +84106,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ398">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR398">
         <v>1.81</v>
@@ -87602,7 +87605,7 @@
         <v>1.71</v>
       </c>
       <c r="AP415">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ415">
         <v>1.68</v>
@@ -89665,7 +89668,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ425">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR425">
         <v>1.5</v>
@@ -92134,7 +92137,7 @@
         <v>0.89</v>
       </c>
       <c r="AP437">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ437">
         <v>1.13</v>
@@ -92755,7 +92758,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ440">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR440">
         <v>1.59</v>
@@ -95845,7 +95848,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ455">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR455">
         <v>1.22</v>
@@ -96666,7 +96669,7 @@
         <v>0.21</v>
       </c>
       <c r="AP459">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ459">
         <v>0.17</v>
@@ -103464,7 +103467,7 @@
         <v>0.9</v>
       </c>
       <c r="AP492">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ492">
         <v>0.86</v>
@@ -103879,7 +103882,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ494">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR494">
         <v>1.38</v>
@@ -105733,7 +105736,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ503">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AR503">
         <v>1.43</v>
@@ -107172,7 +107175,7 @@
         <v>1</v>
       </c>
       <c r="AP510">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ510">
         <v>1.09</v>
@@ -113225,6 +113228,212 @@
       </c>
       <c r="BP539">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="540" spans="1:68">
+      <c r="A540" s="1">
+        <v>539</v>
+      </c>
+      <c r="B540">
+        <v>6693432</v>
+      </c>
+      <c r="C540" t="s">
+        <v>68</v>
+      </c>
+      <c r="D540" t="s">
+        <v>69</v>
+      </c>
+      <c r="E540" s="2">
+        <v>45411.66666666666</v>
+      </c>
+      <c r="F540">
+        <v>45</v>
+      </c>
+      <c r="G540" t="s">
+        <v>86</v>
+      </c>
+      <c r="H540" t="s">
+        <v>79</v>
+      </c>
+      <c r="I540">
+        <v>0</v>
+      </c>
+      <c r="J540">
+        <v>1</v>
+      </c>
+      <c r="K540">
+        <v>1</v>
+      </c>
+      <c r="L540">
+        <v>0</v>
+      </c>
+      <c r="M540">
+        <v>3</v>
+      </c>
+      <c r="N540">
+        <v>3</v>
+      </c>
+      <c r="O540" t="s">
+        <v>99</v>
+      </c>
+      <c r="P540" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q540">
+        <v>6</v>
+      </c>
+      <c r="R540">
+        <v>2.38</v>
+      </c>
+      <c r="S540">
+        <v>2</v>
+      </c>
+      <c r="T540">
+        <v>1.33</v>
+      </c>
+      <c r="U540">
+        <v>3.25</v>
+      </c>
+      <c r="V540">
+        <v>2.5</v>
+      </c>
+      <c r="W540">
+        <v>1.5</v>
+      </c>
+      <c r="X540">
+        <v>6.5</v>
+      </c>
+      <c r="Y540">
+        <v>1.11</v>
+      </c>
+      <c r="Z540">
+        <v>7.06</v>
+      </c>
+      <c r="AA540">
+        <v>1.87</v>
+      </c>
+      <c r="AB540">
+        <v>2.3</v>
+      </c>
+      <c r="AC540">
+        <v>1.03</v>
+      </c>
+      <c r="AD540">
+        <v>15</v>
+      </c>
+      <c r="AE540">
+        <v>1.24</v>
+      </c>
+      <c r="AF540">
+        <v>4.2</v>
+      </c>
+      <c r="AG540">
+        <v>1.63</v>
+      </c>
+      <c r="AH540">
+        <v>2.16</v>
+      </c>
+      <c r="AI540">
+        <v>1.83</v>
+      </c>
+      <c r="AJ540">
+        <v>1.83</v>
+      </c>
+      <c r="AK540">
+        <v>2.7</v>
+      </c>
+      <c r="AL540">
+        <v>1.17</v>
+      </c>
+      <c r="AM540">
+        <v>1.11</v>
+      </c>
+      <c r="AN540">
+        <v>1.68</v>
+      </c>
+      <c r="AO540">
+        <v>1.91</v>
+      </c>
+      <c r="AP540">
+        <v>1.61</v>
+      </c>
+      <c r="AQ540">
+        <v>1.96</v>
+      </c>
+      <c r="AR540">
+        <v>1.21</v>
+      </c>
+      <c r="AS540">
+        <v>1.39</v>
+      </c>
+      <c r="AT540">
+        <v>2.6</v>
+      </c>
+      <c r="AU540">
+        <v>2</v>
+      </c>
+      <c r="AV540">
+        <v>12</v>
+      </c>
+      <c r="AW540">
+        <v>3</v>
+      </c>
+      <c r="AX540">
+        <v>7</v>
+      </c>
+      <c r="AY540">
+        <v>5</v>
+      </c>
+      <c r="AZ540">
+        <v>19</v>
+      </c>
+      <c r="BA540">
+        <v>1</v>
+      </c>
+      <c r="BB540">
+        <v>5</v>
+      </c>
+      <c r="BC540">
+        <v>6</v>
+      </c>
+      <c r="BD540">
+        <v>3.8</v>
+      </c>
+      <c r="BE540">
+        <v>8</v>
+      </c>
+      <c r="BF540">
+        <v>1.38</v>
+      </c>
+      <c r="BG540">
+        <v>1.24</v>
+      </c>
+      <c r="BH540">
+        <v>3.68</v>
+      </c>
+      <c r="BI540">
+        <v>1.49</v>
+      </c>
+      <c r="BJ540">
+        <v>2.61</v>
+      </c>
+      <c r="BK540">
+        <v>1.82</v>
+      </c>
+      <c r="BL540">
+        <v>1.99</v>
+      </c>
+      <c r="BM540">
+        <v>2.29</v>
+      </c>
+      <c r="BN540">
+        <v>1.63</v>
+      </c>
+      <c r="BO540">
+        <v>2.98</v>
+      </c>
+      <c r="BP540">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="606">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1830,6 +1830,9 @@
   <si>
     <t>['36', '52', '67']</t>
   </si>
+  <si>
+    <t>['8', '69']</t>
+  </si>
 </sst>
 </file>
 
@@ -2190,7 +2193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP540"/>
+  <dimension ref="A1:BP541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4796,7 +4799,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ13">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4999,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ14">
         <v>1.52</v>
@@ -8504,7 +8507,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -11385,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ45">
         <v>1.04</v>
@@ -14269,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ59">
         <v>1.32</v>
@@ -15508,7 +15511,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ65">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR65">
         <v>0.87</v>
@@ -18186,7 +18189,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ78">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR78">
         <v>2.05</v>
@@ -22097,7 +22100,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ97">
         <v>0.86</v>
@@ -23748,7 +23751,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ105">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR105">
         <v>1.4</v>
@@ -26629,7 +26632,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ119">
         <v>1.14</v>
@@ -27659,7 +27662,7 @@
         <v>0.8</v>
       </c>
       <c r="AP124">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ124">
         <v>1.09</v>
@@ -33430,7 +33433,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ152">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR152">
         <v>1.16</v>
@@ -36723,7 +36726,7 @@
         <v>1</v>
       </c>
       <c r="AP168">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ168">
         <v>1.13</v>
@@ -38992,7 +38995,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR179">
         <v>1.25</v>
@@ -39404,7 +39407,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ181">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR181">
         <v>1.16</v>
@@ -41255,7 +41258,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ190">
         <v>1.13</v>
@@ -44348,7 +44351,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ205">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR205">
         <v>1.39</v>
@@ -44757,7 +44760,7 @@
         <v>0.38</v>
       </c>
       <c r="AP207">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ207">
         <v>0.7</v>
@@ -49495,7 +49498,7 @@
         <v>0.44</v>
       </c>
       <c r="AP230">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ230">
         <v>0.61</v>
@@ -51146,7 +51149,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ238">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR238">
         <v>1.65</v>
@@ -52794,7 +52797,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ246">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR246">
         <v>1.74</v>
@@ -53821,7 +53824,7 @@
         <v>1.8</v>
       </c>
       <c r="AP251">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ251">
         <v>1.64</v>
@@ -57326,7 +57329,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ268">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR268">
         <v>1.86</v>
@@ -60207,7 +60210,7 @@
         <v>0.36</v>
       </c>
       <c r="AP282">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ282">
         <v>0.86</v>
@@ -62473,7 +62476,7 @@
         <v>1.17</v>
       </c>
       <c r="AP293">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ293">
         <v>1.22</v>
@@ -66184,7 +66187,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ311">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR311">
         <v>1.29</v>
@@ -67005,7 +67008,7 @@
         <v>2.46</v>
       </c>
       <c r="AP315">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ315">
         <v>1.96</v>
@@ -71540,7 +71543,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ337">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR337">
         <v>1.74</v>
@@ -72567,7 +72570,7 @@
         <v>1.14</v>
       </c>
       <c r="AP342">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ342">
         <v>1.14</v>
@@ -74218,7 +74221,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ350">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR350">
         <v>1.18</v>
@@ -77923,7 +77926,7 @@
         <v>1.13</v>
       </c>
       <c r="AP368">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ368">
         <v>1.09</v>
@@ -80398,7 +80401,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ380">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR380">
         <v>1.47</v>
@@ -81634,7 +81637,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ386">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR386">
         <v>1.31</v>
@@ -83897,7 +83900,7 @@
         <v>1.19</v>
       </c>
       <c r="AP397">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ397">
         <v>1.18</v>
@@ -88432,7 +88435,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ419">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR419">
         <v>1.51</v>
@@ -89047,7 +89050,7 @@
         <v>0.24</v>
       </c>
       <c r="AP422">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ422">
         <v>0.17</v>
@@ -91316,7 +91319,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ433">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR433">
         <v>1.24</v>
@@ -97908,7 +97911,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ465">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR465">
         <v>1.52</v>
@@ -99141,7 +99144,7 @@
         <v>1.21</v>
       </c>
       <c r="AP471">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ471">
         <v>1.32</v>
@@ -100998,7 +101001,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ480">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR480">
         <v>1.57</v>
@@ -102437,7 +102440,7 @@
         <v>1.7</v>
       </c>
       <c r="AP487">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ487">
         <v>1.61</v>
@@ -110883,7 +110886,7 @@
         <v>1.62</v>
       </c>
       <c r="AP528">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ528">
         <v>1.68</v>
@@ -113152,7 +113155,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ539">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR539">
         <v>1.53</v>
@@ -113376,16 +113379,16 @@
         <v>12</v>
       </c>
       <c r="AW540">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX540">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY540">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ540">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA540">
         <v>1</v>
@@ -113434,6 +113437,212 @@
       </c>
       <c r="BP540">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="541" spans="1:68">
+      <c r="A541" s="1">
+        <v>540</v>
+      </c>
+      <c r="B541">
+        <v>6693415</v>
+      </c>
+      <c r="C541" t="s">
+        <v>68</v>
+      </c>
+      <c r="D541" t="s">
+        <v>69</v>
+      </c>
+      <c r="E541" s="2">
+        <v>45412.66666666666</v>
+      </c>
+      <c r="F541">
+        <v>44</v>
+      </c>
+      <c r="G541" t="s">
+        <v>82</v>
+      </c>
+      <c r="H541" t="s">
+        <v>88</v>
+      </c>
+      <c r="I541">
+        <v>0</v>
+      </c>
+      <c r="J541">
+        <v>1</v>
+      </c>
+      <c r="K541">
+        <v>1</v>
+      </c>
+      <c r="L541">
+        <v>1</v>
+      </c>
+      <c r="M541">
+        <v>2</v>
+      </c>
+      <c r="N541">
+        <v>3</v>
+      </c>
+      <c r="O541" t="s">
+        <v>214</v>
+      </c>
+      <c r="P541" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q541">
+        <v>3.85</v>
+      </c>
+      <c r="R541">
+        <v>2.25</v>
+      </c>
+      <c r="S541">
+        <v>2.4</v>
+      </c>
+      <c r="T541">
+        <v>1.3</v>
+      </c>
+      <c r="U541">
+        <v>3.2</v>
+      </c>
+      <c r="V541">
+        <v>2.35</v>
+      </c>
+      <c r="W541">
+        <v>1.53</v>
+      </c>
+      <c r="X541">
+        <v>5</v>
+      </c>
+      <c r="Y541">
+        <v>1.13</v>
+      </c>
+      <c r="Z541">
+        <v>3.65</v>
+      </c>
+      <c r="AA541">
+        <v>3.95</v>
+      </c>
+      <c r="AB541">
+        <v>1.81</v>
+      </c>
+      <c r="AC541">
+        <v>1.04</v>
+      </c>
+      <c r="AD541">
+        <v>10</v>
+      </c>
+      <c r="AE541">
+        <v>1.2</v>
+      </c>
+      <c r="AF541">
+        <v>4.33</v>
+      </c>
+      <c r="AG541">
+        <v>1.61</v>
+      </c>
+      <c r="AH541">
+        <v>2.15</v>
+      </c>
+      <c r="AI541">
+        <v>1.53</v>
+      </c>
+      <c r="AJ541">
+        <v>2.38</v>
+      </c>
+      <c r="AK541">
+        <v>1.83</v>
+      </c>
+      <c r="AL541">
+        <v>1.22</v>
+      </c>
+      <c r="AM541">
+        <v>1.28</v>
+      </c>
+      <c r="AN541">
+        <v>1.67</v>
+      </c>
+      <c r="AO541">
+        <v>1.77</v>
+      </c>
+      <c r="AP541">
+        <v>1.59</v>
+      </c>
+      <c r="AQ541">
+        <v>1.83</v>
+      </c>
+      <c r="AR541">
+        <v>1.39</v>
+      </c>
+      <c r="AS541">
+        <v>1.37</v>
+      </c>
+      <c r="AT541">
+        <v>2.76</v>
+      </c>
+      <c r="AU541">
+        <v>-1</v>
+      </c>
+      <c r="AV541">
+        <v>-1</v>
+      </c>
+      <c r="AW541">
+        <v>-1</v>
+      </c>
+      <c r="AX541">
+        <v>-1</v>
+      </c>
+      <c r="AY541">
+        <v>-1</v>
+      </c>
+      <c r="AZ541">
+        <v>-1</v>
+      </c>
+      <c r="BA541">
+        <v>-1</v>
+      </c>
+      <c r="BB541">
+        <v>-1</v>
+      </c>
+      <c r="BC541">
+        <v>-1</v>
+      </c>
+      <c r="BD541">
+        <v>2.3</v>
+      </c>
+      <c r="BE541">
+        <v>7.6</v>
+      </c>
+      <c r="BF541">
+        <v>1.94</v>
+      </c>
+      <c r="BG541">
+        <v>1.11</v>
+      </c>
+      <c r="BH541">
+        <v>5.62</v>
+      </c>
+      <c r="BI541">
+        <v>1.25</v>
+      </c>
+      <c r="BJ541">
+        <v>3.58</v>
+      </c>
+      <c r="BK541">
+        <v>1.51</v>
+      </c>
+      <c r="BL541">
+        <v>2.51</v>
+      </c>
+      <c r="BM541">
+        <v>1.81</v>
+      </c>
+      <c r="BN541">
+        <v>2</v>
+      </c>
+      <c r="BO541">
+        <v>2.22</v>
+      </c>
+      <c r="BP541">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
@@ -113379,16 +113379,16 @@
         <v>12</v>
       </c>
       <c r="AW540">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX540">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY540">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ540">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA540">
         <v>1</v>
@@ -113579,31 +113579,31 @@
         <v>2.76</v>
       </c>
       <c r="AU541">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV541">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW541">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX541">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY541">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ541">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA541">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB541">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC541">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD541">
         <v>2.3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
@@ -113815,31 +113815,31 @@
         <v>2.29</v>
       </c>
       <c r="AU542">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV542">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW542">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX542">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY542">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ542">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA542">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB542">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC542">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD542">
         <v>1.17</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="618">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2229,7 +2229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP557"/>
+  <dimension ref="A1:BP558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2569,7 +2569,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ12">
         <v>1.26</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ26">
         <v>1.08</v>
@@ -7719,7 +7719,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR27">
         <v>1.27</v>
@@ -12663,7 +12663,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR51">
         <v>1.38</v>
@@ -13072,7 +13072,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ53">
         <v>0.96</v>
@@ -20488,7 +20488,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ89">
         <v>1.26</v>
@@ -20903,7 +20903,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -25641,7 +25641,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ114">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR114">
         <v>1.38</v>
@@ -26874,7 +26874,7 @@
         <v>1.4</v>
       </c>
       <c r="AP120">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ120">
         <v>1.26</v>
@@ -28728,7 +28728,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ129">
         <v>1.09</v>
@@ -30997,7 +30997,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ140">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR140">
         <v>1.54</v>
@@ -33881,7 +33881,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ154">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR154">
         <v>0.98</v>
@@ -34702,7 +34702,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ158">
         <v>0.83</v>
@@ -38207,7 +38207,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ175">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR175">
         <v>1.54</v>
@@ -41912,7 +41912,7 @@
         <v>0.43</v>
       </c>
       <c r="AP193">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ193">
         <v>0.7</v>
@@ -43769,7 +43769,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ202">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR202">
         <v>1.36</v>
@@ -46032,7 +46032,7 @@
         <v>1.25</v>
       </c>
       <c r="AP213">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ213">
         <v>1.22</v>
@@ -48298,7 +48298,7 @@
         <v>1.22</v>
       </c>
       <c r="AP224">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ224">
         <v>1.52</v>
@@ -50155,7 +50155,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ233">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR233">
         <v>1.79</v>
@@ -53451,7 +53451,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ249">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR249">
         <v>1.47</v>
@@ -55714,7 +55714,7 @@
         <v>0.8</v>
       </c>
       <c r="AP260">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ260">
         <v>1.26</v>
@@ -57362,7 +57362,7 @@
         <v>2.18</v>
       </c>
       <c r="AP268">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ268">
         <v>1.83</v>
@@ -58189,7 +58189,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ272">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR272">
         <v>1.43</v>
@@ -64778,7 +64778,7 @@
         <v>0.67</v>
       </c>
       <c r="AP304">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ304">
         <v>0.61</v>
@@ -65399,7 +65399,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ307">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR307">
         <v>1.58</v>
@@ -69519,7 +69519,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ327">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR327">
         <v>1.29</v>
@@ -71370,7 +71370,7 @@
         <v>1.15</v>
       </c>
       <c r="AP336">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ336">
         <v>1.13</v>
@@ -71782,7 +71782,7 @@
         <v>1.07</v>
       </c>
       <c r="AP338">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ338">
         <v>1</v>
@@ -74051,7 +74051,7 @@
         <v>1</v>
       </c>
       <c r="AQ349">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR349">
         <v>1.03</v>
@@ -77756,7 +77756,7 @@
         <v>0.29</v>
       </c>
       <c r="AP367">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ367">
         <v>0.17</v>
@@ -79407,7 +79407,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ375">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR375">
         <v>1.22</v>
@@ -80643,7 +80643,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ381">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR381">
         <v>1.41</v>
@@ -84142,7 +84142,7 @@
         <v>2.38</v>
       </c>
       <c r="AP398">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ398">
         <v>1.96</v>
@@ -87029,7 +87029,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ412">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR412">
         <v>1.29</v>
@@ -89498,7 +89498,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP424">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ424">
         <v>1.13</v>
@@ -95678,7 +95678,7 @@
         <v>1.17</v>
       </c>
       <c r="AP454">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ454">
         <v>1.17</v>
@@ -100419,7 +100419,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ477">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR477">
         <v>1.82</v>
@@ -100622,7 +100622,7 @@
         <v>1.67</v>
       </c>
       <c r="AP478">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ478">
         <v>1.61</v>
@@ -102891,7 +102891,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ489">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR489">
         <v>1.5</v>
@@ -104330,7 +104330,7 @@
         <v>1</v>
       </c>
       <c r="AP496">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ496">
         <v>1.04</v>
@@ -105978,7 +105978,7 @@
         <v>1.05</v>
       </c>
       <c r="AP504">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ504">
         <v>1.22</v>
@@ -108865,7 +108865,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ518">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR518">
         <v>1.23</v>
@@ -110719,7 +110719,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ527">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR527">
         <v>1.76</v>
@@ -115248,10 +115248,10 @@
         <v>1.64</v>
       </c>
       <c r="AP549">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AQ549">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AR549">
         <v>1.72</v>
@@ -116281,7 +116281,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ554">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AR554">
         <v>1.55</v>
@@ -116487,7 +116487,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ555">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AR555">
         <v>1.33</v>
@@ -116690,7 +116690,7 @@
         <v>1.57</v>
       </c>
       <c r="AP556">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AQ556">
         <v>1.54</v>
@@ -116896,7 +116896,7 @@
         <v>1.62</v>
       </c>
       <c r="AP557">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AQ557">
         <v>1.58</v>
@@ -116975,6 +116975,212 @@
       </c>
       <c r="BP557">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="558" spans="1:68">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558">
+        <v>7435813</v>
+      </c>
+      <c r="C558" t="s">
+        <v>68</v>
+      </c>
+      <c r="D558" t="s">
+        <v>69</v>
+      </c>
+      <c r="E558" s="2">
+        <v>45438.45833333334</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+      <c r="G558" t="s">
+        <v>80</v>
+      </c>
+      <c r="H558" t="s">
+        <v>85</v>
+      </c>
+      <c r="I558">
+        <v>0</v>
+      </c>
+      <c r="J558">
+        <v>1</v>
+      </c>
+      <c r="K558">
+        <v>1</v>
+      </c>
+      <c r="L558">
+        <v>0</v>
+      </c>
+      <c r="M558">
+        <v>1</v>
+      </c>
+      <c r="N558">
+        <v>1</v>
+      </c>
+      <c r="O558" t="s">
+        <v>99</v>
+      </c>
+      <c r="P558" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q558">
+        <v>2.88</v>
+      </c>
+      <c r="R558">
+        <v>2.2</v>
+      </c>
+      <c r="S558">
+        <v>3.6</v>
+      </c>
+      <c r="T558">
+        <v>1.4</v>
+      </c>
+      <c r="U558">
+        <v>2.75</v>
+      </c>
+      <c r="V558">
+        <v>2.75</v>
+      </c>
+      <c r="W558">
+        <v>1.4</v>
+      </c>
+      <c r="X558">
+        <v>8</v>
+      </c>
+      <c r="Y558">
+        <v>1.08</v>
+      </c>
+      <c r="Z558">
+        <v>2.35</v>
+      </c>
+      <c r="AA558">
+        <v>3.25</v>
+      </c>
+      <c r="AB558">
+        <v>3.1</v>
+      </c>
+      <c r="AC558">
+        <v>1.07</v>
+      </c>
+      <c r="AD558">
+        <v>11.5</v>
+      </c>
+      <c r="AE558">
+        <v>1.25</v>
+      </c>
+      <c r="AF558">
+        <v>3.5</v>
+      </c>
+      <c r="AG558">
+        <v>1.91</v>
+      </c>
+      <c r="AH558">
+        <v>1.8</v>
+      </c>
+      <c r="AI558">
+        <v>1.67</v>
+      </c>
+      <c r="AJ558">
+        <v>2.1</v>
+      </c>
+      <c r="AK558">
+        <v>1.38</v>
+      </c>
+      <c r="AL558">
+        <v>1.35</v>
+      </c>
+      <c r="AM558">
+        <v>1.58</v>
+      </c>
+      <c r="AN558">
+        <v>1.96</v>
+      </c>
+      <c r="AO558">
+        <v>1.9</v>
+      </c>
+      <c r="AP558">
+        <v>1.92</v>
+      </c>
+      <c r="AQ558">
+        <v>1.92</v>
+      </c>
+      <c r="AR558">
+        <v>1.73</v>
+      </c>
+      <c r="AS558">
+        <v>1.56</v>
+      </c>
+      <c r="AT558">
+        <v>3.29</v>
+      </c>
+      <c r="AU558">
+        <v>3</v>
+      </c>
+      <c r="AV558">
+        <v>4</v>
+      </c>
+      <c r="AW558">
+        <v>10</v>
+      </c>
+      <c r="AX558">
+        <v>5</v>
+      </c>
+      <c r="AY558">
+        <v>13</v>
+      </c>
+      <c r="AZ558">
+        <v>9</v>
+      </c>
+      <c r="BA558">
+        <v>4</v>
+      </c>
+      <c r="BB558">
+        <v>4</v>
+      </c>
+      <c r="BC558">
+        <v>8</v>
+      </c>
+      <c r="BD558">
+        <v>2.05</v>
+      </c>
+      <c r="BE558">
+        <v>9</v>
+      </c>
+      <c r="BF558">
+        <v>2.1</v>
+      </c>
+      <c r="BG558">
+        <v>1.19</v>
+      </c>
+      <c r="BH558">
+        <v>4.4</v>
+      </c>
+      <c r="BI558">
+        <v>1.36</v>
+      </c>
+      <c r="BJ558">
+        <v>3</v>
+      </c>
+      <c r="BK558">
+        <v>1.6</v>
+      </c>
+      <c r="BL558">
+        <v>2.24</v>
+      </c>
+      <c r="BM558">
+        <v>1.98</v>
+      </c>
+      <c r="BN558">
+        <v>1.77</v>
+      </c>
+      <c r="BO558">
+        <v>2.5</v>
+      </c>
+      <c r="BP558">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
@@ -117117,31 +117117,31 @@
         <v>3.29</v>
       </c>
       <c r="AU558">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV558">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW558">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AX558">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY558">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AZ558">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BA558">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB558">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC558">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BD558">
         <v>2.05</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
@@ -117117,31 +117117,31 @@
         <v>3.29</v>
       </c>
       <c r="AU558">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV558">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW558">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX558">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY558">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ558">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA558">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB558">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC558">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD558">
         <v>2.05</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England Championship_20232024.xlsx
@@ -116284,13 +116284,13 @@
         <v>1.92</v>
       </c>
       <c r="AR554">
+        <v>1.37</v>
+      </c>
+      <c r="AS554">
         <v>1.55</v>
       </c>
-      <c r="AS554">
-        <v>1.4</v>
-      </c>
       <c r="AT554">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU554">
         <v>2</v>
@@ -116490,13 +116490,13 @@
         <v>1.92</v>
       </c>
       <c r="AR555">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AS555">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AT555">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="AU555">
         <v>3</v>
@@ -116696,13 +116696,13 @@
         <v>1.54</v>
       </c>
       <c r="AR556">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AS556">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AT556">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="AU556">
         <v>12</v>
@@ -116902,13 +116902,13 @@
         <v>1.58</v>
       </c>
       <c r="AR557">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AS557">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT557">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU557">
         <v>5</v>
@@ -117108,13 +117108,13 @@
         <v>1.92</v>
       </c>
       <c r="AR558">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="AS558">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AT558">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="AU558">
         <v>3</v>
